--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value340.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value340.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.149459244548252</v>
+        <v>0.7880238890647888</v>
       </c>
       <c r="B1">
-        <v>3.761560036341527</v>
+        <v>1.480337977409363</v>
       </c>
       <c r="C1">
-        <v>3.201795288559393</v>
+        <v>5.703042030334473</v>
       </c>
       <c r="D1">
-        <v>1.195182256391865</v>
+        <v>3.147686004638672</v>
       </c>
       <c r="E1">
-        <v>0.833051895483827</v>
+        <v>1.48246967792511</v>
       </c>
     </row>
   </sheetData>
